--- a/Trades.xlsx
+++ b/Trades.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,175 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45409.76041666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>63149</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45410.34097222222</v>
+      </c>
+      <c r="B4" t="n">
+        <v>63869</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45410.38611111111</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63851</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45410.40902777778</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63710</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45410.52152777778</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63643.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45412.22986111111</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63317.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45412.24444444444</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63294.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45412.25277777778</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63288</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45412.2625</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63402</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45417.27291666667</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63410.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45417.42361111111</v>
+      </c>
+      <c r="B13" t="n">
+        <v>63788.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45417.4375</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63659.5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45417.45694444444</v>
+      </c>
+      <c r="B15" t="n">
+        <v>63726</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
